--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_12_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_12_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1595729.110964517</v>
+        <v>1555229.071858306</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2537718.247916812</v>
+        <v>1646454.641201932</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8572459.979953744</v>
+        <v>8100491.208488365</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8003593.846803007</v>
+        <v>8221462.221834261</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>404.5434242311914</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>98.14068719464677</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>186.6740677599243</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.8031617750048</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>87.40555495060359</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1451,25 +1451,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>152.4865773017173</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>67.58159636875658</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>161.9374543042645</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984489</v>
+        <v>198.0498966431551</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.9068636035265</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>22.50955534904899</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2950361852809</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>15.96866851622684</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>168.1755093262909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>178.761338661481</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>233.8330333130788</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>165.0526462237798</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1700,10 +1700,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>107.1681317470843</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>156.5912426325231</v>
+        <v>161.9374543042645</v>
       </c>
       <c r="T15" t="n">
-        <v>196.8897623984489</v>
+        <v>198.0498966431551</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9068636035265</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>169.4892290300359</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>161.1486436253826</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>217.3728824763076</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>127.7992048259267</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>319.3678335162777</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1931,7 +1931,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>128.0537032279749</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>83.59830597394826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,7 +2098,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>6.925621452316941</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>65.9418277868885</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2216,7 +2216,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2283,25 +2283,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>174.0382101334481</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>190.6377970689131</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>5.685419855200688</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2414,10 +2414,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>57.44045292477201</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2520,25 +2520,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>118.0056219508405</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>57.16138681661646</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>24.25641376481833</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2642,7 +2642,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -2651,7 +2651,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
         <v>61.42221998250818</v>
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2757,28 +2757,28 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>40.91143958001572</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>208.7572222439897</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>64.33859759829456</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2876,7 +2876,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2888,7 +2888,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
         <v>61.42221998250818</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>31.29558213980389</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>28.279101078555</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3031,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>257.0285774905528</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>156.076170485892</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3158,13 +3158,13 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T33" t="n">
         <v>196.8897623984489</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888687</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>216.6162264530306</v>
       </c>
       <c r="V34" t="n">
-        <v>234.4970761400737</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>194.0711298037337</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,22 +3313,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>309.2370507855644</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3359,7 +3359,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
         <v>104.3883541553076</v>
@@ -3407,7 +3407,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609189</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>110.2526535426574</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.85619482436768</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,13 +3441,13 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>238.2647429150037</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>137.7993272217128</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3584,10 +3584,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883158</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646389</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3599,10 +3599,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>50.43151777216875</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>146.6470461191485</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>104.199239418838</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>141.4822702278208</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3824,22 +3824,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250817</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>50.45526541913127</v>
       </c>
       <c r="T42" t="n">
         <v>196.8897623984489</v>
@@ -3878,16 +3878,16 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>55.57024001549825</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>50.43151777216877</v>
       </c>
       <c r="X43" t="n">
-        <v>120.412035809965</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>202.8620527679065</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.5434242311915</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -4033,13 +4033,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>137.1713329587535</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4058,25 +4058,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.5310119231965</v>
+        <v>33.26879170852622</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250817</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
-        <v>75.85276952660301</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T45" t="n">
         <v>196.8897623984489</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>155.7603343833875</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>198.5424032384319</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1051.856877263124</v>
+        <v>427.2954889527237</v>
       </c>
       <c r="C11" t="n">
-        <v>1051.856877263124</v>
+        <v>427.2954889527237</v>
       </c>
       <c r="D11" t="n">
-        <v>693.5911786563736</v>
+        <v>427.2954889527237</v>
       </c>
       <c r="E11" t="n">
-        <v>693.5911786563736</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="F11" t="n">
-        <v>284.9614572107257</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="G11" t="n">
-        <v>284.9614572107257</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="H11" t="n">
-        <v>185.8294499434057</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="I11" t="n">
-        <v>32.36347393849531</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="J11" t="n">
-        <v>148.1313301714451</v>
+        <v>112.0745033177311</v>
       </c>
       <c r="K11" t="n">
-        <v>148.1313301714451</v>
+        <v>338.5813480664696</v>
       </c>
       <c r="L11" t="n">
-        <v>548.6293201603246</v>
+        <v>671.8597456248018</v>
       </c>
       <c r="M11" t="n">
-        <v>949.127310149204</v>
+        <v>1059.302724253767</v>
       </c>
       <c r="N11" t="n">
-        <v>1217.675706935886</v>
+        <v>1438.3829377903</v>
       </c>
       <c r="O11" t="n">
-        <v>1618.173696924766</v>
+        <v>1751.149996152911</v>
       </c>
       <c r="P11" t="n">
-        <v>1618.173696924766</v>
+        <v>1980.415061436228</v>
       </c>
       <c r="Q11" t="n">
-        <v>1618.173696924766</v>
+        <v>2075.361817723972</v>
       </c>
       <c r="R11" t="n">
-        <v>1618.173696924766</v>
+        <v>2075.361817723972</v>
       </c>
       <c r="S11" t="n">
-        <v>1441.996209238936</v>
+        <v>1886.802153320008</v>
       </c>
       <c r="T11" t="n">
-        <v>1441.996209238936</v>
+        <v>1665.788858597781</v>
       </c>
       <c r="U11" t="n">
-        <v>1441.996209238936</v>
+        <v>1577.500419253737</v>
       </c>
       <c r="V11" t="n">
-        <v>1441.996209238936</v>
+        <v>1577.500419253737</v>
       </c>
       <c r="W11" t="n">
-        <v>1441.996209238936</v>
+        <v>1577.500419253737</v>
       </c>
       <c r="X11" t="n">
-        <v>1441.996209238936</v>
+        <v>1204.034660992657</v>
       </c>
       <c r="Y11" t="n">
-        <v>1051.856877263124</v>
+        <v>813.8953290168455</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>348.7833120217826</v>
+        <v>342.0686400869049</v>
       </c>
       <c r="C12" t="n">
-        <v>348.7833120217826</v>
+        <v>188.0417943275945</v>
       </c>
       <c r="D12" t="n">
-        <v>199.8489023605314</v>
+        <v>188.0417943275945</v>
       </c>
       <c r="E12" t="n">
-        <v>199.8489023605314</v>
+        <v>188.0417943275945</v>
       </c>
       <c r="F12" t="n">
-        <v>199.8489023605314</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="G12" t="n">
-        <v>199.8489023605314</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="H12" t="n">
-        <v>94.40612038547327</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="I12" t="n">
-        <v>32.36347393849531</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="J12" t="n">
-        <v>107.6206363386252</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="K12" t="n">
-        <v>362.8679567797237</v>
+        <v>250.7420041704729</v>
       </c>
       <c r="L12" t="n">
-        <v>400.3519330249709</v>
+        <v>593.4883669600138</v>
       </c>
       <c r="M12" t="n">
-        <v>463.4508334705019</v>
+        <v>1045.436427674187</v>
       </c>
       <c r="N12" t="n">
-        <v>863.9488234593814</v>
+        <v>1285.489371907369</v>
       </c>
       <c r="O12" t="n">
-        <v>1109.85589944434</v>
+        <v>1657.829359836476</v>
       </c>
       <c r="P12" t="n">
-        <v>1446.100713059169</v>
+        <v>1939.66195854537</v>
       </c>
       <c r="Q12" t="n">
-        <v>1618.173696924766</v>
+        <v>2075.361817723972</v>
       </c>
       <c r="R12" t="n">
-        <v>1567.96032633659</v>
+        <v>2007.097578967652</v>
       </c>
       <c r="S12" t="n">
-        <v>1409.787353980507</v>
+        <v>1843.524392801729</v>
       </c>
       <c r="T12" t="n">
-        <v>1210.908806103286</v>
+        <v>1643.473992152077</v>
       </c>
       <c r="U12" t="n">
-        <v>982.7391820741253</v>
+        <v>1415.285241037404</v>
       </c>
       <c r="V12" t="n">
-        <v>747.5870738423826</v>
+        <v>1180.133132805661</v>
       </c>
       <c r="W12" t="n">
-        <v>747.5870738423826</v>
+        <v>925.8957760774597</v>
       </c>
       <c r="X12" t="n">
-        <v>539.7355736368497</v>
+        <v>718.0442758719269</v>
       </c>
       <c r="Y12" t="n">
-        <v>516.9986490418507</v>
+        <v>510.2839771069729</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>359.1116467676327</v>
+        <v>210.4434192823863</v>
       </c>
       <c r="C13" t="n">
-        <v>359.1116467676327</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="D13" t="n">
-        <v>359.1116467676327</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="E13" t="n">
-        <v>359.1116467676327</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1116467676327</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="G13" t="n">
-        <v>190.1118465059652</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="H13" t="n">
-        <v>32.36347393849531</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="I13" t="n">
-        <v>32.36347393849531</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="J13" t="n">
-        <v>32.36347393849531</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="K13" t="n">
-        <v>88.66566700476346</v>
+        <v>70.0548395773274</v>
       </c>
       <c r="L13" t="n">
-        <v>216.2395245659219</v>
+        <v>162.1123777097461</v>
       </c>
       <c r="M13" t="n">
-        <v>361.1373932839518</v>
+        <v>269.563267345609</v>
       </c>
       <c r="N13" t="n">
-        <v>508.0245309683809</v>
+        <v>379.8938314123313</v>
       </c>
       <c r="O13" t="n">
-        <v>627.682281477621</v>
+        <v>465.7856693327219</v>
       </c>
       <c r="P13" t="n">
-        <v>706.5494763245651</v>
+        <v>515.7602927182528</v>
       </c>
       <c r="Q13" t="n">
-        <v>677.1325571781871</v>
+        <v>515.7602927182528</v>
       </c>
       <c r="R13" t="n">
-        <v>528.9858986123711</v>
+        <v>515.7602927182528</v>
       </c>
       <c r="S13" t="n">
-        <v>528.9858986123711</v>
+        <v>515.7602927182528</v>
       </c>
       <c r="T13" t="n">
-        <v>528.9858986123711</v>
+        <v>515.7602927182528</v>
       </c>
       <c r="U13" t="n">
-        <v>528.9858986123711</v>
+        <v>226.5733874805953</v>
       </c>
       <c r="V13" t="n">
-        <v>528.9858986123711</v>
+        <v>226.5733874805953</v>
       </c>
       <c r="W13" t="n">
-        <v>528.9858986123711</v>
+        <v>210.4434192823863</v>
       </c>
       <c r="X13" t="n">
-        <v>528.9858986123711</v>
+        <v>210.4434192823863</v>
       </c>
       <c r="Y13" t="n">
-        <v>359.1116467676327</v>
+        <v>210.4434192823863</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1051.856877263124</v>
+        <v>1004.930435046166</v>
       </c>
       <c r="C14" t="n">
-        <v>1051.856877263124</v>
+        <v>635.9679181057541</v>
       </c>
       <c r="D14" t="n">
-        <v>693.5911786563736</v>
+        <v>277.7022194990035</v>
       </c>
       <c r="E14" t="n">
-        <v>693.5911786563736</v>
+        <v>277.7022194990035</v>
       </c>
       <c r="F14" t="n">
-        <v>693.5911786563736</v>
+        <v>277.7022194990035</v>
       </c>
       <c r="G14" t="n">
-        <v>513.0241699074029</v>
+        <v>277.7022194990035</v>
       </c>
       <c r="H14" t="n">
-        <v>185.8294499434057</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="I14" t="n">
-        <v>32.36347393849531</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="J14" t="n">
-        <v>148.1313301714451</v>
+        <v>112.0745033177311</v>
       </c>
       <c r="K14" t="n">
-        <v>375.5464834292601</v>
+        <v>338.5813480664694</v>
       </c>
       <c r="L14" t="n">
-        <v>776.0444734181397</v>
+        <v>671.8597456248015</v>
       </c>
       <c r="M14" t="n">
-        <v>1176.542463407019</v>
+        <v>1059.302724253767</v>
       </c>
       <c r="N14" t="n">
-        <v>1217.675706935886</v>
+        <v>1438.3829377903</v>
       </c>
       <c r="O14" t="n">
-        <v>1618.173696924766</v>
+        <v>1751.149996152911</v>
       </c>
       <c r="P14" t="n">
-        <v>1618.173696924766</v>
+        <v>1980.415061436228</v>
       </c>
       <c r="Q14" t="n">
-        <v>1618.173696924766</v>
+        <v>2075.361817723972</v>
       </c>
       <c r="R14" t="n">
-        <v>1618.173696924766</v>
+        <v>2075.361817723972</v>
       </c>
       <c r="S14" t="n">
-        <v>1441.996209238936</v>
+        <v>2075.361817723972</v>
       </c>
       <c r="T14" t="n">
-        <v>1441.996209238936</v>
+        <v>2075.361817723972</v>
       </c>
       <c r="U14" t="n">
-        <v>1441.996209238936</v>
+        <v>2075.361817723972</v>
       </c>
       <c r="V14" t="n">
-        <v>1441.996209238936</v>
+        <v>1744.298930380402</v>
       </c>
       <c r="W14" t="n">
-        <v>1441.996209238936</v>
+        <v>1391.530275110287</v>
       </c>
       <c r="X14" t="n">
-        <v>1441.996209238936</v>
+        <v>1391.530275110287</v>
       </c>
       <c r="Y14" t="n">
-        <v>1051.856877263124</v>
+        <v>1391.530275110287</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>596.7039562215293</v>
+        <v>619.6798713983408</v>
       </c>
       <c r="C15" t="n">
-        <v>422.2509269404023</v>
+        <v>445.2268421172138</v>
       </c>
       <c r="D15" t="n">
-        <v>422.2509269404023</v>
+        <v>296.2924324559625</v>
       </c>
       <c r="E15" t="n">
-        <v>422.2509269404023</v>
+        <v>296.2924324559625</v>
       </c>
       <c r="F15" t="n">
-        <v>275.7163689672873</v>
+        <v>149.7578744828475</v>
       </c>
       <c r="G15" t="n">
-        <v>137.8062559135535</v>
+        <v>149.7578744828475</v>
       </c>
       <c r="H15" t="n">
-        <v>32.36347393849531</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="I15" t="n">
-        <v>32.36347393849531</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="J15" t="n">
-        <v>107.6206363386252</v>
+        <v>89.84323744061336</v>
       </c>
       <c r="K15" t="n">
-        <v>173.4278434948573</v>
+        <v>146.87801312695</v>
       </c>
       <c r="L15" t="n">
-        <v>573.9258334837368</v>
+        <v>489.6243759164909</v>
       </c>
       <c r="M15" t="n">
-        <v>974.4238234726163</v>
+        <v>941.5724366306638</v>
       </c>
       <c r="N15" t="n">
-        <v>1374.921813461496</v>
+        <v>1421.189231085972</v>
       </c>
       <c r="O15" t="n">
-        <v>1425.134040397877</v>
+        <v>1793.529219015079</v>
       </c>
       <c r="P15" t="n">
-        <v>1446.100713059169</v>
+        <v>2075.361817723972</v>
       </c>
       <c r="Q15" t="n">
-        <v>1618.173696924766</v>
+        <v>2075.361817723972</v>
       </c>
       <c r="R15" t="n">
-        <v>1567.96032633659</v>
+        <v>2075.361817723972</v>
       </c>
       <c r="S15" t="n">
-        <v>1409.787353980507</v>
+        <v>1911.788631558049</v>
       </c>
       <c r="T15" t="n">
-        <v>1210.908806103286</v>
+        <v>1711.738230908397</v>
       </c>
       <c r="U15" t="n">
-        <v>1210.908806103286</v>
+        <v>1483.549479793724</v>
       </c>
       <c r="V15" t="n">
-        <v>975.7566978715429</v>
+        <v>1248.397371561981</v>
       </c>
       <c r="W15" t="n">
-        <v>975.7566978715429</v>
+        <v>994.1600148337793</v>
       </c>
       <c r="X15" t="n">
-        <v>767.9051976660101</v>
+        <v>994.1600148337793</v>
       </c>
       <c r="Y15" t="n">
-        <v>596.7039562215293</v>
+        <v>786.3997160688255</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.36347393849531</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="C16" t="n">
-        <v>32.36347393849531</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="D16" t="n">
-        <v>32.36347393849531</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="E16" t="n">
-        <v>32.36347393849531</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="F16" t="n">
-        <v>32.36347393849531</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="G16" t="n">
-        <v>32.36347393849531</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="H16" t="n">
-        <v>32.36347393849531</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="I16" t="n">
-        <v>32.36347393849531</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="J16" t="n">
-        <v>32.36347393849531</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="K16" t="n">
-        <v>88.66566700476346</v>
+        <v>70.0548395773274</v>
       </c>
       <c r="L16" t="n">
-        <v>216.2395245659219</v>
+        <v>162.1123777097461</v>
       </c>
       <c r="M16" t="n">
-        <v>361.1373932839518</v>
+        <v>269.563267345609</v>
       </c>
       <c r="N16" t="n">
-        <v>508.0245309683809</v>
+        <v>379.8938314123313</v>
       </c>
       <c r="O16" t="n">
-        <v>627.682281477621</v>
+        <v>465.7856693327219</v>
       </c>
       <c r="P16" t="n">
-        <v>706.5494763245651</v>
+        <v>515.7602927182528</v>
       </c>
       <c r="Q16" t="n">
-        <v>677.1325571781871</v>
+        <v>515.7602927182528</v>
       </c>
       <c r="R16" t="n">
-        <v>677.1325571781871</v>
+        <v>515.7602927182528</v>
       </c>
       <c r="S16" t="n">
-        <v>677.1325571781871</v>
+        <v>515.7602927182528</v>
       </c>
       <c r="T16" t="n">
-        <v>449.8243698467888</v>
+        <v>296.1917245603663</v>
       </c>
       <c r="U16" t="n">
-        <v>449.8243698467888</v>
+        <v>296.1917245603663</v>
       </c>
       <c r="V16" t="n">
-        <v>195.139881640902</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="W16" t="n">
-        <v>195.139881640902</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="X16" t="n">
-        <v>195.139881640902</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="Y16" t="n">
-        <v>195.139881640902</v>
+        <v>41.50723635447945</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1422.14692331494</v>
+        <v>593.1972104235191</v>
       </c>
       <c r="C17" t="n">
-        <v>1422.14692331494</v>
+        <v>593.1972104235191</v>
       </c>
       <c r="D17" t="n">
-        <v>1422.14692331494</v>
+        <v>593.1972104235191</v>
       </c>
       <c r="E17" t="n">
-        <v>1036.358670716696</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F17" t="n">
-        <v>625.3727659270879</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G17" t="n">
         <v>207.4089578252748</v>
@@ -5515,19 +5515,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5542,25 +5542,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2513.030295663941</v>
       </c>
       <c r="T17" t="n">
-        <v>2465.942913862886</v>
+        <v>2294.395628636004</v>
       </c>
       <c r="U17" t="n">
-        <v>2465.942913862886</v>
+        <v>2040.633843274095</v>
       </c>
       <c r="V17" t="n">
-        <v>2134.880026519315</v>
+        <v>1709.570955930525</v>
       </c>
       <c r="W17" t="n">
-        <v>2134.880026519315</v>
+        <v>1356.802300660411</v>
       </c>
       <c r="X17" t="n">
-        <v>1812.286255290752</v>
+        <v>983.3365423993308</v>
       </c>
       <c r="Y17" t="n">
-        <v>1422.14692331494</v>
+        <v>593.1972104235191</v>
       </c>
     </row>
     <row r="18">
@@ -5579,31 +5579,31 @@
         <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
         <v>1748.695370517453</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>331.20325038051</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>331.20325038051</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>183.2901567981169</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>183.2901567981169</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036445</v>
@@ -5679,46 +5679,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>138.3857151273829</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>138.3857151273829</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>138.3857151273829</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W19" t="n">
-        <v>138.3857151273829</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X19" t="n">
-        <v>138.3857151273829</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1251.855211652197</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C20" t="n">
-        <v>882.8926947117852</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D20" t="n">
-        <v>882.8926947117852</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
@@ -5752,13 +5752,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5779,25 +5779,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2635.124824324153</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2635.124824324153</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U20" t="n">
-        <v>2381.363038962244</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V20" t="n">
-        <v>2381.363038962244</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W20" t="n">
-        <v>2028.59438369213</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="X20" t="n">
-        <v>2028.59438369213</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="Y20" t="n">
-        <v>1638.455051716319</v>
+        <v>1595.875667274027</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
         <v>115.9856282673424</v>
@@ -5843,10 +5843,10 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
         <v>2525.076107152626</v>
@@ -5867,7 +5867,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5916,37 +5916,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>308.6274700262513</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V22" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W22" t="n">
         <v>53.94298182036445</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1125.191652989356</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C23" t="n">
-        <v>1125.191652989356</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D23" t="n">
-        <v>766.9259543826058</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E23" t="n">
-        <v>381.1377017843616</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="F23" t="n">
-        <v>381.1377017843616</v>
+        <v>727.1671091720125</v>
       </c>
       <c r="G23" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
@@ -5992,7 +5992,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
         <v>881.2824271224076</v>
@@ -6001,7 +6001,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6016,25 +6016,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>2241.565398496362</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V23" t="n">
-        <v>2241.565398496362</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W23" t="n">
-        <v>1888.796743226248</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X23" t="n">
-        <v>1515.330984965168</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y23" t="n">
-        <v>1125.191652989356</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="24">
@@ -6062,31 +6062,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>204.0596212327002</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C25" t="n">
-        <v>204.0596212327002</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H25" t="n">
         <v>53.94298182036445</v>
@@ -6153,46 +6153,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>323.2572191628421</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>204.0596212327002</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X25" t="n">
-        <v>204.0596212327002</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y25" t="n">
-        <v>204.0596212327002</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1061.921889775366</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C26" t="n">
-        <v>1004.183115213127</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D26" t="n">
-        <v>1004.183115213127</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E26" t="n">
-        <v>618.3948626148824</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F26" t="n">
-        <v>207.4089578252748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733127</v>
@@ -6238,7 +6238,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2672.647662972951</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2672.647662972951</v>
       </c>
       <c r="T26" t="n">
-        <v>2423.485734520778</v>
+        <v>2672.647662972951</v>
       </c>
       <c r="U26" t="n">
-        <v>2169.72394915887</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="V26" t="n">
-        <v>1838.661061815299</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W26" t="n">
-        <v>1838.661061815299</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X26" t="n">
-        <v>1838.661061815299</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y26" t="n">
-        <v>1448.521729839487</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="27">
@@ -6290,13 +6290,13 @@
         <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
@@ -6308,13 +6308,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
         <v>1748.695370517453</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G28" t="n">
         <v>53.94298182036445</v>
@@ -6390,46 +6390,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>323.2572191628421</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>323.2572191628421</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1198.223260609829</v>
+        <v>1675.109392681467</v>
       </c>
       <c r="C29" t="n">
-        <v>829.2607436694175</v>
+        <v>1306.146875741055</v>
       </c>
       <c r="D29" t="n">
-        <v>829.2607436694175</v>
+        <v>947.8811771343048</v>
       </c>
       <c r="E29" t="n">
-        <v>829.2607436694175</v>
+        <v>947.8811771343048</v>
       </c>
       <c r="F29" t="n">
-        <v>418.2748388798099</v>
+        <v>536.8952723446973</v>
       </c>
       <c r="G29" t="n">
-        <v>207.4089578252748</v>
+        <v>118.9314642428842</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>118.9314642428842</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
@@ -6466,16 +6466,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V29" t="n">
-        <v>2311.057514205145</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W29" t="n">
-        <v>1958.288858935031</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X29" t="n">
-        <v>1584.823100673951</v>
+        <v>1675.109392681467</v>
       </c>
       <c r="Y29" t="n">
-        <v>1584.823100673951</v>
+        <v>1675.109392681467</v>
       </c>
     </row>
     <row r="30">
@@ -6524,16 +6524,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
@@ -6542,25 +6542,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>369.7691122461817</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C31" t="n">
-        <v>200.8329293182748</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D31" t="n">
-        <v>200.8329293182748</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="E31" t="n">
-        <v>200.8329293182748</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>412.3028537806169</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>243.3030535189494</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>85.5546809514795</v>
       </c>
       <c r="I31" t="n">
         <v>53.94298182036445</v>
@@ -6627,46 +6627,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>551.4175770764215</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>551.4175770764215</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>551.4175770764215</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>551.4175770764215</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>551.4175770764215</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X31" t="n">
-        <v>551.4175770764215</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y31" t="n">
-        <v>551.4175770764215</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1546.874376112625</v>
+        <v>1623.178216428726</v>
       </c>
       <c r="C32" t="n">
-        <v>1177.911859172214</v>
+        <v>1623.178216428726</v>
       </c>
       <c r="D32" t="n">
-        <v>1177.911859172214</v>
+        <v>1623.178216428726</v>
       </c>
       <c r="E32" t="n">
-        <v>792.1236065739693</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F32" t="n">
-        <v>381.1377017843616</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>2057.295728843236</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W32" t="n">
-        <v>1704.527073573122</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X32" t="n">
-        <v>1704.527073573122</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y32" t="n">
-        <v>1546.874376112625</v>
+        <v>1623.178216428726</v>
       </c>
     </row>
     <row r="33">
@@ -6764,13 +6764,13 @@
         <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692496</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961346</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
@@ -6785,10 +6785,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6800,10 +6800,10 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
         <v>2488.762748073964</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>509.3247150619588</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>340.388532134052</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I34" t="n">
         <v>53.94298182036445</v>
@@ -6864,46 +6864,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>290.8087152951864</v>
+        <v>509.3247150619588</v>
       </c>
       <c r="V34" t="n">
-        <v>53.94298182036445</v>
+        <v>509.3247150619588</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036445</v>
+        <v>509.3247150619588</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>509.3247150619588</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>509.3247150619588</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1036.358670716696</v>
+        <v>1406.118858921978</v>
       </c>
       <c r="C35" t="n">
-        <v>1036.358670716696</v>
+        <v>1406.118858921978</v>
       </c>
       <c r="D35" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E35" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F35" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G35" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U35" t="n">
-        <v>2443.387305656314</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V35" t="n">
-        <v>2112.324418312743</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="W35" t="n">
-        <v>1799.963760953587</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="X35" t="n">
-        <v>1426.498002692507</v>
+        <v>1796.25819089779</v>
       </c>
       <c r="Y35" t="n">
-        <v>1036.358670716696</v>
+        <v>1406.118858921978</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
         <v>221.4284102424006</v>
@@ -7013,7 +7013,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
@@ -7028,13 +7028,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.5995062532301</v>
+        <v>249.9299350185087</v>
       </c>
       <c r="C37" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D37" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E37" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F37" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G37" t="n">
-        <v>99.5995062532301</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H37" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I37" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U37" t="n">
-        <v>438.9553738610024</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V37" t="n">
-        <v>438.9553738610024</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W37" t="n">
-        <v>438.9553738610024</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X37" t="n">
-        <v>210.965822962985</v>
+        <v>470.7225141620388</v>
       </c>
       <c r="Y37" t="n">
-        <v>210.965822962985</v>
+        <v>249.9299350185087</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1193.238943380988</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="C38" t="n">
-        <v>1193.238943380988</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="D38" t="n">
-        <v>1193.238943380988</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="E38" t="n">
-        <v>1193.238943380988</v>
+        <v>1084.780822196771</v>
       </c>
       <c r="F38" t="n">
-        <v>952.5674858910851</v>
+        <v>673.7949174071637</v>
       </c>
       <c r="G38" t="n">
         <v>534.603677789272</v>
@@ -7174,19 +7174,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L38" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U38" t="n">
-        <v>2267.209817970484</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V38" t="n">
-        <v>1936.146930626914</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W38" t="n">
-        <v>1583.3782753568</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="X38" t="n">
-        <v>1583.3782753568</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="Y38" t="n">
-        <v>1193.238943380988</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="39">
@@ -7232,7 +7232,7 @@
         <v>988.4979752170834</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
         <v>665.1105362747051</v>
@@ -7244,7 +7244,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
@@ -7256,10 +7256,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
         <v>1313.210296315296</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2328.228182461412</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C40" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D40" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E40" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F40" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G40" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H40" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018223</v>
+        <v>677.1880571638397</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018223</v>
+        <v>462.8996339820025</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018223</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="U40" t="n">
-        <v>2697.149091018223</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="V40" t="n">
-        <v>2697.149091018223</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W40" t="n">
-        <v>2697.149091018223</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X40" t="n">
-        <v>2549.020761604942</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y40" t="n">
-        <v>2328.228182461412</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>618.2759268961281</v>
+        <v>1468.83137709195</v>
       </c>
       <c r="C41" t="n">
-        <v>513.0241699074029</v>
+        <v>1468.83137709195</v>
       </c>
       <c r="D41" t="n">
-        <v>513.0241699074029</v>
+        <v>1468.83137709195</v>
       </c>
       <c r="E41" t="n">
-        <v>513.0241699074029</v>
+        <v>1083.043124493706</v>
       </c>
       <c r="F41" t="n">
-        <v>513.0241699074029</v>
+        <v>940.1317404252002</v>
       </c>
       <c r="G41" t="n">
-        <v>513.0241699074029</v>
+        <v>522.167932323387</v>
       </c>
       <c r="H41" t="n">
-        <v>185.8294499434057</v>
+        <v>194.9732123593898</v>
       </c>
       <c r="I41" t="n">
-        <v>32.36347393849532</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="J41" t="n">
-        <v>148.1313301714451</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="K41" t="n">
-        <v>319.097847927193</v>
+        <v>335.758047374478</v>
       </c>
       <c r="L41" t="n">
-        <v>322.934023571342</v>
+        <v>753.0788254235729</v>
       </c>
       <c r="M41" t="n">
-        <v>358.8719455714734</v>
+        <v>1234.035145581609</v>
       </c>
       <c r="N41" t="n">
-        <v>759.369935560353</v>
+        <v>1708.14184427834</v>
       </c>
       <c r="O41" t="n">
-        <v>1159.867925549233</v>
+        <v>2075.361817723973</v>
       </c>
       <c r="P41" t="n">
-        <v>1465.716165697796</v>
+        <v>2075.361817723973</v>
       </c>
       <c r="Q41" t="n">
-        <v>1618.173696924766</v>
+        <v>2075.361817723973</v>
       </c>
       <c r="R41" t="n">
-        <v>1563.145007455259</v>
+        <v>2075.361817723973</v>
       </c>
       <c r="S41" t="n">
-        <v>1563.145007455259</v>
+        <v>2075.361817723973</v>
       </c>
       <c r="T41" t="n">
-        <v>1344.510340427322</v>
+        <v>2075.361817723973</v>
       </c>
       <c r="U41" t="n">
-        <v>1344.510340427322</v>
+        <v>1821.600032362064</v>
       </c>
       <c r="V41" t="n">
-        <v>1344.510340427322</v>
+        <v>1821.600032362064</v>
       </c>
       <c r="W41" t="n">
-        <v>991.7416851572079</v>
+        <v>1468.83137709195</v>
       </c>
       <c r="X41" t="n">
-        <v>618.2759268961281</v>
+        <v>1468.83137709195</v>
       </c>
       <c r="Y41" t="n">
-        <v>618.2759268961281</v>
+        <v>1468.83137709195</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>712.5412756989048</v>
+        <v>524.1321303023133</v>
       </c>
       <c r="C42" t="n">
-        <v>538.0882464177778</v>
+        <v>349.6791010211862</v>
       </c>
       <c r="D42" t="n">
-        <v>538.0882464177778</v>
+        <v>200.744691359935</v>
       </c>
       <c r="E42" t="n">
-        <v>378.8507914123222</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="F42" t="n">
-        <v>232.3162334392072</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="G42" t="n">
-        <v>94.40612038547329</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="H42" t="n">
-        <v>94.40612038547329</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="I42" t="n">
-        <v>32.36347393849532</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="J42" t="n">
-        <v>32.36347393849532</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="K42" t="n">
-        <v>287.6107943795939</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="L42" t="n">
-        <v>395.7130542968358</v>
+        <v>446.1231544501513</v>
       </c>
       <c r="M42" t="n">
-        <v>796.2110442857154</v>
+        <v>785.3290312021165</v>
       </c>
       <c r="N42" t="n">
-        <v>1196.709034274595</v>
+        <v>1298.9810810888</v>
       </c>
       <c r="O42" t="n">
-        <v>1597.207024263475</v>
+        <v>1739.117004109144</v>
       </c>
       <c r="P42" t="n">
-        <v>1618.173696924766</v>
+        <v>2075.361817723973</v>
       </c>
       <c r="Q42" t="n">
-        <v>1618.173696924766</v>
+        <v>2075.361817723973</v>
       </c>
       <c r="R42" t="n">
-        <v>1618.173696924766</v>
+        <v>2075.361817723973</v>
       </c>
       <c r="S42" t="n">
-        <v>1618.173696924766</v>
+        <v>2024.396903159194</v>
       </c>
       <c r="T42" t="n">
-        <v>1419.295149047545</v>
+        <v>1825.518355281973</v>
       </c>
       <c r="U42" t="n">
-        <v>1191.125525018385</v>
+        <v>1597.348731252812</v>
       </c>
       <c r="V42" t="n">
-        <v>1191.125525018385</v>
+        <v>1362.19662302107</v>
       </c>
       <c r="W42" t="n">
-        <v>936.8881682901831</v>
+        <v>1107.959266292868</v>
       </c>
       <c r="X42" t="n">
-        <v>880.7566127189727</v>
+        <v>900.1077660873352</v>
       </c>
       <c r="Y42" t="n">
-        <v>880.7566127189727</v>
+        <v>692.3474673223814</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1094.104333951032</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="C43" t="n">
-        <v>1094.104333951032</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="D43" t="n">
-        <v>943.9876945386961</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="E43" t="n">
-        <v>943.9876945386961</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="F43" t="n">
-        <v>943.9876945386961</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="G43" t="n">
-        <v>943.9876945386961</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="H43" t="n">
-        <v>943.9876945386961</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="I43" t="n">
-        <v>943.9876945386961</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="J43" t="n">
-        <v>943.9876945386961</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="K43" t="n">
-        <v>1000.289887604964</v>
+        <v>97.80942942074759</v>
       </c>
       <c r="L43" t="n">
-        <v>1127.863745166123</v>
+        <v>225.3832869819061</v>
       </c>
       <c r="M43" t="n">
-        <v>1272.761613884153</v>
+        <v>370.281155699936</v>
       </c>
       <c r="N43" t="n">
-        <v>1419.648751568582</v>
+        <v>517.1682933843651</v>
       </c>
       <c r="O43" t="n">
-        <v>1539.306502077822</v>
+        <v>636.8260438936053</v>
       </c>
       <c r="P43" t="n">
-        <v>1618.173696924766</v>
+        <v>715.6932387405494</v>
       </c>
       <c r="Q43" t="n">
-        <v>1618.173696924766</v>
+        <v>715.6932387405494</v>
       </c>
       <c r="R43" t="n">
-        <v>1618.173696924766</v>
+        <v>715.6932387405494</v>
       </c>
       <c r="S43" t="n">
-        <v>1618.173696924766</v>
+        <v>501.4048155587121</v>
       </c>
       <c r="T43" t="n">
-        <v>1618.173696924766</v>
+        <v>274.0966282273139</v>
       </c>
       <c r="U43" t="n">
-        <v>1618.173696924766</v>
+        <v>274.0966282273139</v>
       </c>
       <c r="V43" t="n">
-        <v>1618.173696924766</v>
+        <v>274.0966282273139</v>
       </c>
       <c r="W43" t="n">
-        <v>1618.173696924766</v>
+        <v>223.1557011847192</v>
       </c>
       <c r="X43" t="n">
-        <v>1496.545377924801</v>
+        <v>223.1557011847192</v>
       </c>
       <c r="Y43" t="n">
-        <v>1275.752798781271</v>
+        <v>223.1557011847192</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1168.332852741492</v>
+        <v>880.4336309301375</v>
       </c>
       <c r="C44" t="n">
-        <v>799.3703358010805</v>
+        <v>880.4336309301375</v>
       </c>
       <c r="D44" t="n">
-        <v>799.3703358010805</v>
+        <v>522.167932323387</v>
       </c>
       <c r="E44" t="n">
-        <v>799.3703358010805</v>
+        <v>522.167932323387</v>
       </c>
       <c r="F44" t="n">
-        <v>594.4591713890537</v>
+        <v>522.167932323387</v>
       </c>
       <c r="G44" t="n">
-        <v>185.8294499434057</v>
+        <v>522.167932323387</v>
       </c>
       <c r="H44" t="n">
-        <v>185.8294499434057</v>
+        <v>194.9732123593898</v>
       </c>
       <c r="I44" t="n">
-        <v>32.36347393849532</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="J44" t="n">
-        <v>32.36347393849532</v>
+        <v>157.2750925874292</v>
       </c>
       <c r="K44" t="n">
-        <v>326.6142849584939</v>
+        <v>451.5259036074277</v>
       </c>
       <c r="L44" t="n">
-        <v>727.1122749473735</v>
+        <v>868.8466816565226</v>
       </c>
       <c r="M44" t="n">
-        <v>763.050196947505</v>
+        <v>1349.803001814558</v>
       </c>
       <c r="N44" t="n">
-        <v>1134.362231333836</v>
+        <v>1823.90970051129</v>
       </c>
       <c r="O44" t="n">
-        <v>1159.867925549233</v>
+        <v>2075.361817723973</v>
       </c>
       <c r="P44" t="n">
-        <v>1465.716165697796</v>
+        <v>2075.361817723973</v>
       </c>
       <c r="Q44" t="n">
-        <v>1618.173696924766</v>
+        <v>2075.361817723973</v>
       </c>
       <c r="R44" t="n">
-        <v>1563.145007455259</v>
+        <v>2020.333128254466</v>
       </c>
       <c r="S44" t="n">
-        <v>1386.967519769429</v>
+        <v>1844.155640568636</v>
       </c>
       <c r="T44" t="n">
-        <v>1168.332852741492</v>
+        <v>1625.520973540699</v>
       </c>
       <c r="U44" t="n">
-        <v>1168.332852741492</v>
+        <v>1371.759188178791</v>
       </c>
       <c r="V44" t="n">
-        <v>1168.332852741492</v>
+        <v>1233.202286200252</v>
       </c>
       <c r="W44" t="n">
-        <v>1168.332852741492</v>
+        <v>880.4336309301375</v>
       </c>
       <c r="X44" t="n">
-        <v>1168.332852741492</v>
+        <v>880.4336309301375</v>
       </c>
       <c r="Y44" t="n">
-        <v>1168.332852741492</v>
+        <v>880.4336309301375</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>484.2935733873803</v>
+        <v>809.7143103601088</v>
       </c>
       <c r="C45" t="n">
-        <v>484.2935733873803</v>
+        <v>635.2612810789818</v>
       </c>
       <c r="D45" t="n">
-        <v>484.2935733873803</v>
+        <v>486.3268714177306</v>
       </c>
       <c r="E45" t="n">
-        <v>484.2935733873803</v>
+        <v>327.0894164122751</v>
       </c>
       <c r="F45" t="n">
-        <v>337.7590154142653</v>
+        <v>180.55485843916</v>
       </c>
       <c r="G45" t="n">
-        <v>199.8489023605314</v>
+        <v>146.9500183295376</v>
       </c>
       <c r="H45" t="n">
-        <v>94.40612038547329</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="I45" t="n">
-        <v>32.36347393849532</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="J45" t="n">
-        <v>107.6206363386252</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="K45" t="n">
-        <v>107.6206363386252</v>
+        <v>296.754556795578</v>
       </c>
       <c r="L45" t="n">
-        <v>145.1046125838725</v>
+        <v>701.3704748912498</v>
       </c>
       <c r="M45" t="n">
-        <v>545.6026025727522</v>
+        <v>1100.607172155654</v>
       </c>
       <c r="N45" t="n">
-        <v>946.1005925616319</v>
+        <v>1614.259222042338</v>
       </c>
       <c r="O45" t="n">
-        <v>1346.598582550512</v>
+        <v>2054.395145062681</v>
       </c>
       <c r="P45" t="n">
-        <v>1446.100713059169</v>
+        <v>2075.361817723973</v>
       </c>
       <c r="Q45" t="n">
-        <v>1618.173696924766</v>
+        <v>2075.361817723973</v>
       </c>
       <c r="R45" t="n">
-        <v>1618.173696924766</v>
+        <v>2025.148447135798</v>
       </c>
       <c r="S45" t="n">
-        <v>1541.554737806985</v>
+        <v>1866.975474779714</v>
       </c>
       <c r="T45" t="n">
-        <v>1342.676189929764</v>
+        <v>1668.096926902493</v>
       </c>
       <c r="U45" t="n">
-        <v>1114.506565900604</v>
+        <v>1439.927302873332</v>
       </c>
       <c r="V45" t="n">
-        <v>1114.506565900604</v>
+        <v>1439.927302873332</v>
       </c>
       <c r="W45" t="n">
-        <v>860.2692091724023</v>
+        <v>1185.689946145131</v>
       </c>
       <c r="X45" t="n">
-        <v>860.2692091724023</v>
+        <v>1185.689946145131</v>
       </c>
       <c r="Y45" t="n">
-        <v>652.5089104074484</v>
+        <v>977.9296473801769</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1091.900788121089</v>
+        <v>515.1453566815272</v>
       </c>
       <c r="C46" t="n">
-        <v>1091.900788121089</v>
+        <v>515.1453566815272</v>
       </c>
       <c r="D46" t="n">
-        <v>1091.900788121089</v>
+        <v>515.1453566815272</v>
       </c>
       <c r="E46" t="n">
-        <v>943.9876945386961</v>
+        <v>515.1453566815272</v>
       </c>
       <c r="F46" t="n">
-        <v>943.9876945386961</v>
+        <v>368.2554091836169</v>
       </c>
       <c r="G46" t="n">
-        <v>943.9876945386961</v>
+        <v>199.2556089219493</v>
       </c>
       <c r="H46" t="n">
-        <v>943.9876945386961</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="I46" t="n">
-        <v>943.9876945386961</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="J46" t="n">
-        <v>943.9876945386961</v>
+        <v>41.50723635447945</v>
       </c>
       <c r="K46" t="n">
-        <v>1000.289887604964</v>
+        <v>97.80942942074759</v>
       </c>
       <c r="L46" t="n">
-        <v>1127.863745166123</v>
+        <v>225.3832869819061</v>
       </c>
       <c r="M46" t="n">
-        <v>1272.761613884153</v>
+        <v>370.281155699936</v>
       </c>
       <c r="N46" t="n">
-        <v>1419.648751568582</v>
+        <v>517.1682933843651</v>
       </c>
       <c r="O46" t="n">
-        <v>1539.306502077822</v>
+        <v>636.8260438936053</v>
       </c>
       <c r="P46" t="n">
-        <v>1618.173696924766</v>
+        <v>715.6932387405494</v>
       </c>
       <c r="Q46" t="n">
-        <v>1618.173696924766</v>
+        <v>715.6932387405494</v>
       </c>
       <c r="R46" t="n">
-        <v>1470.02703835895</v>
+        <v>715.6932387405494</v>
       </c>
       <c r="S46" t="n">
-        <v>1470.02703835895</v>
+        <v>715.6932387405494</v>
       </c>
       <c r="T46" t="n">
-        <v>1312.693367264619</v>
+        <v>715.6932387405494</v>
       </c>
       <c r="U46" t="n">
-        <v>1312.693367264619</v>
+        <v>515.1453566815272</v>
       </c>
       <c r="V46" t="n">
-        <v>1312.693367264619</v>
+        <v>515.1453566815272</v>
       </c>
       <c r="W46" t="n">
-        <v>1312.693367264619</v>
+        <v>515.1453566815272</v>
       </c>
       <c r="X46" t="n">
-        <v>1312.693367264619</v>
+        <v>515.1453566815272</v>
       </c>
       <c r="Y46" t="n">
-        <v>1091.900788121089</v>
+        <v>515.1453566815272</v>
       </c>
     </row>
   </sheetData>
@@ -8692,25 +8692,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>26.92237113682279</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>400.6684993381116</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>368.2424929179274</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>229.712276017995</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>378.7800967408915</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>12.86109185980285</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>58.31748437003574</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,22 +8768,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>77.26679181906144</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>324.5660651408547</v>
+        <v>237.3586872504973</v>
       </c>
       <c r="O12" t="n">
-        <v>197.6715646955319</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8929,25 +8929,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>256.6346471548178</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>400.6684993381116</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>368.2424929179274</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>378.7800967408915</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>12.86109185980285</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>58.31748437003574</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>73.11158722988532</v>
+        <v>110.7278712250465</v>
       </c>
       <c r="L15" t="n">
-        <v>366.6808219632649</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>340.8071611548975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>324.5660651408547</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>73.00672290897759</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.66121455045</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9242,16 +9242,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.513533492832</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,13 +9491,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>275.0442842992659</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10433,13 +10433,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10676,10 +10676,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O36" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9065542451758</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>52.1593866539427</v>
       </c>
       <c r="K41" t="n">
-        <v>199.6158234153559</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>362.9946933939519</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>378.7800967408915</v>
+        <v>345.1659386164</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>12.86109185980285</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>58.31748437003574</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>6.639660809448799</v>
       </c>
       <c r="L42" t="n">
-        <v>71.33159966868138</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>340.8071611548976</v>
+        <v>278.8959356630648</v>
       </c>
       <c r="N42" t="n">
-        <v>324.5660651408548</v>
+        <v>438.8630953406564</v>
       </c>
       <c r="O42" t="n">
-        <v>353.8240030833311</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>36.26619292211495</v>
+        <v>36.26619292211498</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>52.15938665394268</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>400.6684993381117</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>333.5139301590541</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>228.2287100982689</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>12.86109185980285</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>58.31748437003574</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K45" t="n">
-        <v>6.639660809448742</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>340.8071611548976</v>
+        <v>339.5331280998722</v>
       </c>
       <c r="N45" t="n">
-        <v>324.5660651408547</v>
+        <v>438.8630953406564</v>
       </c>
       <c r="O45" t="n">
-        <v>353.8240030833311</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>79.32874530037014</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>36.26619292211498</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2.332621510520028</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>414.3221120921478</v>
       </c>
       <c r="H11" t="n">
-        <v>225.7820855697104</v>
+        <v>329.4319720025994</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>172.6703279506916</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>88.26990621442943</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>163.8616479233939</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23339,25 +23339,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>20.22192168659839</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>136.8188363059963</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>107.1681317470843</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>71.33196298679871</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23399,13 +23399,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>183.1731404282554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.5511045529426</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>158.3162856002138</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>142.222239866826</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>62.26003136667826</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>49.3285265825161</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>157.5150205764143</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>216.3507798353856</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>226.0661243501669</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>270.5543298203642</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>50.40914402580384</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>235.022831359314</v>
+        <v>414.3221120921478</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>95.59893868952059</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>172.6703279506916</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>88.26990621442943</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>186.6740677599243</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>218.8031617750048</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>251.2672028739975</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>1.480537426087494</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.8188363059963</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>71.33196298679871</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>67.58159636875658</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23630,19 +23630,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8879277888686</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>36.19346674726845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18.68333655655471</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>167.5511045529426</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>158.3162856002138</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>142.222239866826</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>62.26003136667826</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>49.3285265825161</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>157.5150205764143</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>216.3507798353856</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>8.69324187385925</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>286.2950361852809</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23743,10 +23743,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>46.61650798304488</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>50.36326716219133</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,19 +23892,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>39.25609903107602</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
@@ -23955,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>134.9863473781465</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>167.4900913566546</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>283.2991409305245</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24150,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>50.9968953246362</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>223.1463729518819</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>245.5387476530886</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>91.17502009344034</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,25 +24408,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>168.2762522911372</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>308.1115049543911</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>30.22198880999338</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24603,19 +24603,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24624,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,28 +24645,28 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>211.2262037438123</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>205.0269477768053</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>87.59271864656669</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,16 +24852,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>103.6700396525343</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>183.8664378714639</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
@@ -24919,25 +24919,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>124.901792581709</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24973,7 +24973,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>230.1617681701616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,10 +25077,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25095,10 +25095,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25131,10 +25131,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>69.66564778894713</v>
       </c>
       <c r="V34" t="n">
-        <v>17.64056718375429</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25159,7 +25159,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>160.6119118169493</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,22 +25201,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>40.0039179318486</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>69.57932663927991</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>129.3906262742602</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25329,13 +25329,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,10 +25356,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25368,7 +25368,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,13 +25399,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>168.6113028267077</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>275.9848427990822</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25438,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,16 +25593,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>96.23367420798908</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25614,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>79.06260926988864</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25630,19 +25630,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>261.0736523521696</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>265.3937755138907</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25712,22 +25712,22 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
-        <v>156.5912426325231</v>
+        <v>106.1359772133918</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25766,16 +25766,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>150.2027451879792</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25809,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,16 +25830,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -25848,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>236.0914805644222</v>
       </c>
       <c r="X43" t="n">
-        <v>105.2976195790721</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,22 +25867,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>204.0139929738049</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>9.240745789603466</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,13 +25921,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>190.5809255113814</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25946,25 +25946,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>103.2622202146703</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229329</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>80.73847310592008</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26031,22 +26031,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>69.27477107469676</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>87.73947100354579</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>517796.2538282545</v>
+        <v>594986.9627602868</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>517796.2538282545</v>
+        <v>594986.9627602866</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>684600.1344551367</v>
+        <v>684600.1344551366</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>684600.1344551367</v>
+        <v>684600.1344551368</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>684600.1344551367</v>
+        <v>684600.1344551368</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>684600.1344551366</v>
+        <v>684600.1344551368</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>684600.1344551368</v>
+        <v>684600.1344551367</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>517796.2538282547</v>
+        <v>588475.1155921903</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>517796.2538282546</v>
+        <v>588475.1155921903</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>614457.2540377788</v>
+      </c>
+      <c r="C2" t="n">
         <v>614457.2540377789</v>
-      </c>
-      <c r="C2" t="n">
-        <v>614457.2540377788</v>
       </c>
       <c r="D2" t="n">
         <v>614457.2540377788</v>
       </c>
       <c r="E2" t="n">
-        <v>337944.7086711596</v>
+        <v>368153.9261868217</v>
       </c>
       <c r="F2" t="n">
-        <v>337944.7086711596</v>
+        <v>368153.9261868215</v>
       </c>
       <c r="G2" t="n">
+        <v>433728.9150236363</v>
+      </c>
+      <c r="H2" t="n">
+        <v>433728.9150236363</v>
+      </c>
+      <c r="I2" t="n">
+        <v>433728.9150236361</v>
+      </c>
+      <c r="J2" t="n">
         <v>433728.9150236362</v>
       </c>
-      <c r="H2" t="n">
-        <v>433728.9150236364</v>
-      </c>
-      <c r="I2" t="n">
-        <v>433728.9150236365</v>
-      </c>
-      <c r="J2" t="n">
-        <v>433728.9150236365</v>
-      </c>
       <c r="K2" t="n">
-        <v>433728.9150236362</v>
+        <v>433728.9150236363</v>
       </c>
       <c r="L2" t="n">
         <v>433728.9150236363</v>
       </c>
       <c r="M2" t="n">
-        <v>433728.9150236363</v>
+        <v>433728.9150236362</v>
       </c>
       <c r="N2" t="n">
         <v>433728.9150236364</v>
       </c>
       <c r="O2" t="n">
-        <v>337944.7086711596</v>
+        <v>378530.806875304</v>
       </c>
       <c r="P2" t="n">
-        <v>337944.7086711595</v>
+        <v>378530.8068753038</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>424268.1595831008</v>
+        <v>350888.9001207649</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>73932.74272252628</v>
+        <v>146643.5792986523</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>100813.8394921098</v>
+        <v>129297.1166060212</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>409397.0283363865</v>
       </c>
       <c r="E4" t="n">
-        <v>67520.95940498324</v>
+        <v>104508.2616813117</v>
       </c>
       <c r="F4" t="n">
-        <v>67520.95940498324</v>
+        <v>104508.2616813117</v>
       </c>
       <c r="G4" t="n">
-        <v>106808.022922681</v>
+        <v>106808.0229226811</v>
       </c>
       <c r="H4" t="n">
-        <v>106808.022922681</v>
+        <v>106808.0229226811</v>
       </c>
       <c r="I4" t="n">
         <v>106808.022922681</v>
@@ -26456,10 +26456,10 @@
         <v>106808.022922681</v>
       </c>
       <c r="O4" t="n">
-        <v>67520.95940498324</v>
+        <v>84167.84388418535</v>
       </c>
       <c r="P4" t="n">
-        <v>67520.95940498324</v>
+        <v>84167.84388418535</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>32831.05207318893</v>
+        <v>36863.18614190826</v>
       </c>
       <c r="F5" t="n">
-        <v>32831.05207318893</v>
+        <v>36863.18614190826</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26505,13 +26505,13 @@
         <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
-        <v>32831.05207318893</v>
+        <v>39780.31150933688</v>
       </c>
       <c r="P5" t="n">
-        <v>32831.05207318893</v>
+        <v>39780.31150933688</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>171432.6257013924</v>
+        <v>171388.4899227112</v>
       </c>
       <c r="C6" t="n">
-        <v>171432.6257013923</v>
+        <v>171388.4899227113</v>
       </c>
       <c r="D6" t="n">
-        <v>171432.6257013923</v>
+        <v>171388.4899227112</v>
       </c>
       <c r="E6" t="n">
-        <v>-186675.4623901134</v>
+        <v>-132360.6684642095</v>
       </c>
       <c r="F6" t="n">
-        <v>237592.6971929874</v>
+        <v>218528.2316565551</v>
       </c>
       <c r="G6" t="n">
-        <v>203756.6713150195</v>
+        <v>124977.4209930743</v>
       </c>
       <c r="H6" t="n">
-        <v>277689.4140375459</v>
+        <v>271621.0002917266</v>
       </c>
       <c r="I6" t="n">
-        <v>277689.414037546</v>
+        <v>271621.0002917264</v>
       </c>
       <c r="J6" t="n">
-        <v>277689.414037546</v>
+        <v>271621.0002917265</v>
       </c>
       <c r="K6" t="n">
-        <v>277689.4140375457</v>
+        <v>271621.0002917266</v>
       </c>
       <c r="L6" t="n">
-        <v>277689.4140375458</v>
+        <v>271621.0002917266</v>
       </c>
       <c r="M6" t="n">
-        <v>176875.574545436</v>
+        <v>142323.8836857054</v>
       </c>
       <c r="N6" t="n">
-        <v>277689.4140375459</v>
+        <v>271621.0002917267</v>
       </c>
       <c r="O6" t="n">
-        <v>237592.6971929874</v>
+        <v>246674.3007976848</v>
       </c>
       <c r="P6" t="n">
-        <v>237592.6971929873</v>
+        <v>246674.3007976846</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>243.9305739680681</v>
+      </c>
+      <c r="F3" t="n">
+        <v>243.9305739680681</v>
+      </c>
+      <c r="G3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="H3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="I3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="J3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="K3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="L3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="M3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="N3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="F3" t="n">
+      <c r="O3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="G3" t="n">
+      <c r="P3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="H3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="I3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="J3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="K3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="L3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="M3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="N3" t="n">
-        <v>377.7436642170868</v>
-      </c>
-      <c r="O3" t="n">
-        <v>377.7436642170868</v>
-      </c>
-      <c r="P3" t="n">
-        <v>377.7436642170868</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>404.5434242311914</v>
+        <v>518.8404544309931</v>
       </c>
       <c r="F4" t="n">
-        <v>404.5434242311914</v>
+        <v>518.8404544309931</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
@@ -26822,16 +26822,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
-        <v>404.5434242311915</v>
+        <v>518.8404544309932</v>
       </c>
       <c r="P4" t="n">
-        <v>404.5434242311915</v>
+        <v>518.8404544309932</v>
       </c>
     </row>
   </sheetData>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>243.9305739680681</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>133.8130902490185</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>404.5434242311914</v>
+        <v>518.8404544309931</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>269.7438485233642</v>
+        <v>155.4468183235625</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>404.5434242311914</v>
+        <v>518.840454430993</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>404.5434242311914</v>
+        <v>518.8404544309931</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>269.7438485233642</v>
+        <v>155.4468183235625</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>0.9806254229872078</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>10.04283011316774</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>37.80556161971437</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727436</v>
+        <v>83.22935699426061</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>124.7392311493091</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>154.7500464380539</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>172.1892438041027</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>174.9754457871651</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>165.224351737336</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>141.0151616073393</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>105.8965136466099</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>61.59921172672025</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>22.34600182632102</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>4.292687789126505</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.07845003383897661</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.5246808572143352</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>5.067312489412133</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>18.06466986461637</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>49.57083484760525</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>84.72445228096571</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>113.9224817385775</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>132.9421628125971</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>136.460746280495</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>124.8349230759037</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>100.1910314096392</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>66.97505117704392</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>32.57623778388655</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>9.745716799573282</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>2.114832051666552</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.03451847744831154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.4398748055161884</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>3.910886907225751</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>13.22823506043229</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>31.09914874999452</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>51.10545467724442</v>
       </c>
       <c r="L13" t="n">
-        <v>101.2724571246924</v>
+        <v>65.39738699465224</v>
       </c>
       <c r="M13" t="n">
-        <v>106.777606591725</v>
+        <v>68.95237519559669</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666594</v>
+        <v>67.31284182958186</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>62.17430432877909</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>53.2008582962488</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>36.83351666917829</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>19.77837080075516</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695336</v>
+        <v>7.665818201586662</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>1.879465078114623</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.02399317120997394</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>0.9806254229872078</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>10.04283011316774</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>37.80556161971437</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727436</v>
+        <v>83.22935699426061</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>124.7392311493091</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>154.7500464380539</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>172.1892438041027</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>174.9754457871651</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>165.224351737336</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>141.0151616073393</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>105.8965136466099</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>61.59921172672025</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>22.34600182632102</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>4.292687789126505</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.07845003383897661</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.5246808572143352</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>5.067312489412133</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>18.06466986461637</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>49.57083484760525</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>84.72445228096571</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>113.9224817385775</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>132.9421628125971</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>136.460746280495</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>124.8349230759037</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>100.1910314096392</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>66.97505117704392</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>32.57623778388655</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>9.745716799573282</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>2.114832051666552</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.03451847744831154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.4398748055161884</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>3.910886907225751</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>13.22823506043229</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>31.09914874999452</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>51.10545467724442</v>
       </c>
       <c r="L16" t="n">
-        <v>101.2724571246924</v>
+        <v>65.39738699465224</v>
       </c>
       <c r="M16" t="n">
-        <v>106.777606591725</v>
+        <v>68.95237519559669</v>
       </c>
       <c r="N16" t="n">
-        <v>104.2386737666594</v>
+        <v>67.31284182958186</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>62.17430432877909</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>53.2008582962488</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>36.83351666917829</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>19.77837080075516</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695336</v>
+        <v>7.665818201586662</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>1.879465078114623</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.02399317120997394</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32408,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33891,7 +33891,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33900,34 +33900,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,40 +33964,40 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L39" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M39" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N39" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O39" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
@@ -34006,7 +34006,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,25 +34067,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,7 +34128,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34137,34 +34137,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,40 +34201,40 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L42" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M42" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N42" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O42" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
@@ -34243,7 +34243,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,25 +34304,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34374,34 +34374,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,40 +34438,40 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L45" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N45" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
@@ -34480,7 +34480,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,25 +34541,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>71.2800676396481</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>228.7947926754933</v>
       </c>
       <c r="L11" t="n">
-        <v>404.5434242311914</v>
+        <v>336.6448460185171</v>
       </c>
       <c r="M11" t="n">
-        <v>404.5434242311914</v>
+        <v>391.3565440696624</v>
       </c>
       <c r="N11" t="n">
-        <v>271.2610068552345</v>
+        <v>382.9093066025583</v>
       </c>
       <c r="O11" t="n">
-        <v>404.5434242311914</v>
+        <v>315.9263215783947</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>231.5808740235524</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>95.90581443206511</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>211.3482503191853</v>
       </c>
       <c r="L12" t="n">
-        <v>37.86260226792655</v>
+        <v>346.2084472621625</v>
       </c>
       <c r="M12" t="n">
-        <v>63.73626307629391</v>
+        <v>456.5131926405787</v>
       </c>
       <c r="N12" t="n">
-        <v>404.5434242311914</v>
+        <v>242.477721447659</v>
       </c>
       <c r="O12" t="n">
-        <v>248.3909858433922</v>
+        <v>376.1009979081888</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>284.6793926352461</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>137.0705648268715</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>28.83596285136157</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850085</v>
+        <v>92.98741225496838</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535656</v>
+        <v>108.5362521574373</v>
       </c>
       <c r="N13" t="n">
-        <v>148.370846145888</v>
+        <v>111.4450142088104</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>86.75943224281876</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>50.47941756114228</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>71.2800676396481</v>
       </c>
       <c r="K14" t="n">
-        <v>229.712276017995</v>
+        <v>228.7947926754933</v>
       </c>
       <c r="L14" t="n">
-        <v>404.5434242311914</v>
+        <v>336.6448460185171</v>
       </c>
       <c r="M14" t="n">
-        <v>404.5434242311914</v>
+        <v>391.3565440696624</v>
       </c>
       <c r="N14" t="n">
-        <v>41.54873083723953</v>
+        <v>382.9093066025583</v>
       </c>
       <c r="O14" t="n">
-        <v>404.5434242311914</v>
+        <v>315.9263215783947</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>231.5808740235524</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>95.90581443206527</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>48.82424352134739</v>
       </c>
       <c r="K15" t="n">
-        <v>66.47192642043652</v>
+        <v>57.61088453165318</v>
       </c>
       <c r="L15" t="n">
-        <v>404.5434242311914</v>
+        <v>346.2084472621625</v>
       </c>
       <c r="M15" t="n">
-        <v>404.5434242311914</v>
+        <v>456.5131926405787</v>
       </c>
       <c r="N15" t="n">
-        <v>404.5434242311914</v>
+        <v>484.4614085407152</v>
       </c>
       <c r="O15" t="n">
-        <v>50.71942114786029</v>
+        <v>376.1009979081888</v>
       </c>
       <c r="P15" t="n">
-        <v>21.17845723362751</v>
+        <v>284.6793926352461</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>28.83596285136157</v>
       </c>
       <c r="L16" t="n">
-        <v>128.8624823850085</v>
+        <v>92.98741225496838</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535656</v>
+        <v>108.5362521574373</v>
       </c>
       <c r="N16" t="n">
-        <v>148.370846145888</v>
+        <v>111.4450142088104</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557981</v>
+        <v>86.75943224281876</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>50.47941756114228</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435297</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060961</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36211,13 +36211,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36448,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36922,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37396,13 +37396,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O36" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37548,22 +37548,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355125</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37715,10 +37715,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O40" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>172.6934522785332</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>3.874924893079822</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>36.3009313132641</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>404.5434242311915</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
-        <v>404.5434242311915</v>
+        <v>370.9292661066999</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.997506289869</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031299</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>109.194201936608</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>404.5434242311915</v>
+        <v>342.6321987393588</v>
       </c>
       <c r="N42" t="n">
-        <v>404.5434242311915</v>
+        <v>518.8404544309932</v>
       </c>
       <c r="O42" t="n">
-        <v>404.5434242311915</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>21.17845723362757</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37952,10 +37952,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O43" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
         <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>404.5434242311915</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>36.3009313132641</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>375.0626609962937</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
-        <v>25.76332749029996</v>
+        <v>253.9920375885688</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.997506289869</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>37.8626022679266</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>404.5434242311915</v>
+        <v>403.2693911761662</v>
       </c>
       <c r="N45" t="n">
-        <v>404.5434242311915</v>
+        <v>518.8404544309932</v>
       </c>
       <c r="O45" t="n">
-        <v>404.5434242311915</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>100.5072025339977</v>
+        <v>21.17845723362751</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38189,10 +38189,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
